--- a/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
+++ b/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>251996.1693643127</v>
+        <v>2495.636791569763</v>
       </c>
       <c r="E2">
-        <v>1.959908158123923</v>
+        <v>0.001075122486558833</v>
       </c>
       <c r="F2">
-        <v>1.959908158123923</v>
+        <v>0.001075122486558833</v>
       </c>
       <c r="G2">
-        <v>8.303707805726061</v>
+        <v>0.004548138018213477</v>
       </c>
       <c r="H2">
-        <v>0.09286773007845917</v>
+        <v>0.2562437213080533</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
+++ b/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>2495.636791569763</v>
+        <v>-14921.06905570271</v>
       </c>
       <c r="E2">
-        <v>0.001075122486558833</v>
+        <v>-0.1247191630707427</v>
       </c>
       <c r="F2">
-        <v>0.001075122486558833</v>
+        <v>-0.1247191630707427</v>
       </c>
       <c r="G2">
-        <v>0.004548138018213477</v>
+        <v>-1.344130289260997</v>
       </c>
       <c r="H2">
-        <v>0.2562437213080533</v>
+        <v>0.154204134273032</v>
       </c>
       <c r="I2">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
+++ b/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>-14921.06905570271</v>
+        <v>207376.5016665322</v>
       </c>
       <c r="E2">
-        <v>-0.1247191630707427</v>
+        <v>1.608011397426951</v>
       </c>
       <c r="F2">
-        <v>-0.1247191630707427</v>
+        <v>1.608011397426951</v>
       </c>
       <c r="G2">
-        <v>-1.344130289260997</v>
+        <v>6.821150255878512</v>
       </c>
       <c r="H2">
-        <v>0.154204134273032</v>
+        <v>0.09600677268899205</v>
       </c>
       <c r="I2">
-        <v>278</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
+++ b/stat_arb/pair_perform/000088.SZ@600798.SH.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>207376.5016665322</v>
+        <v>2495.636791569763</v>
       </c>
       <c r="E2">
-        <v>1.608011397426951</v>
+        <v>0.001075122486558833</v>
       </c>
       <c r="F2">
-        <v>1.608011397426951</v>
+        <v>0.001075122486558833</v>
       </c>
       <c r="G2">
-        <v>6.821150255878512</v>
+        <v>0.004548138018213477</v>
       </c>
       <c r="H2">
-        <v>0.09600677268899205</v>
+        <v>0.2562437213080533</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
